--- a/output/plannet-PlanNet-Network.xlsx
+++ b/output/plannet-PlanNet-Network.xlsx
@@ -149,7 +149,8 @@
     <t>plannet-PlanNet-Network</t>
   </si>
   <si>
-    <t>PlanNet-Network</t>
+    <t>A PlanNet-Network refers to a healthcare provider insurance network. A healthcare provider insurance network is an aggregation of organizations and individuals that deliver a set of services across a geography through health insurance products/plans. A network is typically owned by a payer.
+In the PlanNet IG, individuals and organizations are represented as participants in a PLan-Net Network through the PlanNet-practitionerRole and Plan-Net-organizationAffiliation resources, respectively.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -339,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t>CoverageArea</t>
+    <t>An extension referencing a Location resource defining the coverage area of a health insurance provider network</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
